--- a/20200305_V4_UPDATED.xlsx
+++ b/20200305_V4_UPDATED.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mart\Documents\GitHub\SVV-FlightTest-B06\project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daanv\PycharmProjects\FlightDynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DA47F9-3BFD-43E8-B7A8-20F222C401F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="5724" yWindow="4332" windowWidth="8748" windowHeight="8724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +21,12 @@
     <sheet name="Luigi" sheetId="6" r:id="rId6"/>
     <sheet name="Sebas" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="79">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -277,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
@@ -347,112 +338,7 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="131">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="126">
     <dxf>
       <fill>
         <patternFill>
@@ -3132,7 +3018,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3198,7 +3084,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3150,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3330,7 +3216,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3282,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3348,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3528,7 +3414,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3577,7 +3463,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3615,7 +3501,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3650,6 +3536,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3685,9 +3588,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3860,28 +3780,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3893,7 +3813,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3905,13 +3825,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -3919,7 +3839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -3930,7 +3850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -3941,7 +3861,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3952,7 +3872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3963,7 +3883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -3974,7 +3894,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -3985,7 +3905,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -3996,7 +3916,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4007,7 +3927,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -4018,7 +3938,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -4026,12 +3946,12 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -4039,7 +3959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -4071,7 +3991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -4100,7 +4020,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4132,7 +4052,7 @@
         <v>-10.200000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -4164,7 +4084,7 @@
         <v>-12.16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -4196,7 +4116,7 @@
         <v>-13.75</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4228,7 +4148,7 @@
         <v>-14.866666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -4260,7 +4180,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -4292,13 +4212,11 @@
         <v>-17.45</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
         <v>77</v>
       </c>
@@ -4324,23 +4242,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -4372,7 +4290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -4401,7 +4319,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -4433,7 +4351,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -4465,7 +4383,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -4497,7 +4415,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -4529,7 +4447,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -4561,7 +4479,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -4593,7 +4511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -4625,17 +4543,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -4643,7 +4561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -4684,7 +4602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -4722,7 +4640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -4763,7 +4681,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -4804,7 +4722,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4845,7 +4763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -4886,7 +4804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -4927,7 +4845,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -4968,7 +4886,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -5009,17 +4927,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -5027,7 +4945,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -5041,7 +4959,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -5082,7 +5000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -5120,7 +5038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -5161,7 +5079,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -5202,17 +5120,17 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -5223,7 +5141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -5234,7 +5152,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -5254,7 +5172,7 @@
         <v>4.5717592592592594E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -5277,82 +5195,82 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="containsBlanks" dxfId="130" priority="32">
+    <cfRule type="containsBlanks" dxfId="125" priority="32">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="129" priority="27">
+    <cfRule type="containsBlanks" dxfId="124" priority="27">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J34">
-    <cfRule type="containsBlanks" dxfId="128" priority="26">
+    <cfRule type="containsBlanks" dxfId="123" priority="26">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="127" priority="22">
+    <cfRule type="containsBlanks" dxfId="122" priority="22">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="126" priority="21">
+    <cfRule type="containsBlanks" dxfId="121" priority="21">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="125" priority="20">
+    <cfRule type="containsBlanks" dxfId="120" priority="20">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="124" priority="14">
+    <cfRule type="containsBlanks" dxfId="119" priority="14">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="123" priority="15">
+    <cfRule type="containsBlanks" dxfId="118" priority="15">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:J50">
-    <cfRule type="containsBlanks" dxfId="122" priority="8">
+    <cfRule type="containsBlanks" dxfId="117" priority="8">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:M65">
-    <cfRule type="containsBlanks" dxfId="121" priority="7">
+    <cfRule type="containsBlanks" dxfId="116" priority="7">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="120" priority="6">
+    <cfRule type="containsBlanks" dxfId="115" priority="6">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="119" priority="5">
+    <cfRule type="containsBlanks" dxfId="114" priority="5">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="118" priority="4">
+    <cfRule type="containsBlanks" dxfId="113" priority="4">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="117" priority="3">
+    <cfRule type="containsBlanks" dxfId="112" priority="3">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H16">
-    <cfRule type="containsBlanks" dxfId="116" priority="2">
+    <cfRule type="containsBlanks" dxfId="111" priority="2">
       <formula>LEN(TRIM(H8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D16">
-    <cfRule type="containsBlanks" dxfId="115" priority="1">
+    <cfRule type="containsBlanks" dxfId="110" priority="1">
       <formula>LEN(TRIM(D8))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5363,28 +5281,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5396,7 +5314,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5410,13 +5328,13 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -5424,7 +5342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5435,7 +5353,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -5446,7 +5364,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -5455,7 +5373,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -5466,7 +5384,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5477,7 +5395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -5488,7 +5406,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -5499,7 +5417,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -5510,7 +5428,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -5521,18 +5439,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -5540,7 +5458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -5572,7 +5490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -5601,7 +5519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5631,7 +5549,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -5645,7 +5563,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -5675,7 +5593,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5705,7 +5623,7 @@
         <v>-14.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -5735,7 +5653,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -5765,7 +5683,7 @@
         <v>-17.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -5779,17 +5697,17 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -5797,7 +5715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -5829,7 +5747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -5858,7 +5776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5872,7 +5790,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -5886,7 +5804,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -5900,7 +5818,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -5914,7 +5832,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -5928,7 +5846,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -5942,7 +5860,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -5956,17 +5874,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -5974,7 +5892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -6015,7 +5933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -6053,7 +5971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -6084,7 +6002,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -6115,7 +6033,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -6146,7 +6064,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -6177,7 +6095,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -6208,7 +6126,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -6239,7 +6157,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -6256,17 +6174,17 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -6274,7 +6192,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -6288,7 +6206,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -6329,7 +6247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -6367,7 +6285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -6398,7 +6316,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -6415,17 +6333,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -6436,7 +6354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -6447,7 +6365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -6467,7 +6385,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -6490,87 +6408,87 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 D8:D16 H8:H16 B75:M75 B64:M64">
-    <cfRule type="containsBlanks" dxfId="114" priority="23">
+    <cfRule type="containsBlanks" dxfId="109" priority="23">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="113" priority="22">
+    <cfRule type="containsBlanks" dxfId="108" priority="22">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="containsBlanks" dxfId="112" priority="19">
+    <cfRule type="containsBlanks" dxfId="107" priority="19">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="111" priority="17">
+    <cfRule type="containsBlanks" dxfId="106" priority="17">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="110" priority="16">
+    <cfRule type="containsBlanks" dxfId="105" priority="16">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="109" priority="15">
+    <cfRule type="containsBlanks" dxfId="104" priority="15">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="108" priority="12">
+    <cfRule type="containsBlanks" dxfId="103" priority="12">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="107" priority="13">
+    <cfRule type="containsBlanks" dxfId="102" priority="13">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="106" priority="11">
+    <cfRule type="containsBlanks" dxfId="101" priority="11">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="105" priority="10">
+    <cfRule type="containsBlanks" dxfId="100" priority="10">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="104" priority="9">
+    <cfRule type="containsBlanks" dxfId="99" priority="9">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="103" priority="7">
+    <cfRule type="containsBlanks" dxfId="98" priority="7">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J30 B32:J33 C31:J31">
-    <cfRule type="containsBlanks" dxfId="102" priority="6">
+    <cfRule type="containsBlanks" dxfId="97" priority="6">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="101" priority="5">
+    <cfRule type="containsBlanks" dxfId="96" priority="5">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:M65">
-    <cfRule type="containsBlanks" dxfId="100" priority="4">
+    <cfRule type="containsBlanks" dxfId="95" priority="4">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="99" priority="3">
+    <cfRule type="containsBlanks" dxfId="94" priority="3">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:M76">
-    <cfRule type="containsBlanks" dxfId="98" priority="1">
+    <cfRule type="containsBlanks" dxfId="93" priority="1">
       <formula>LEN(TRIM(B76))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6581,28 +6499,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6614,7 +6532,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6626,13 +6544,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -6640,7 +6558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -6651,7 +6569,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -6662,7 +6580,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -6673,7 +6591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -6684,7 +6602,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -6695,7 +6613,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -6706,7 +6624,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -6717,7 +6635,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -6728,7 +6646,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -6739,18 +6657,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -6758,7 +6676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -6790,7 +6708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -6819,7 +6737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6851,7 +6769,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -6883,7 +6801,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -6915,7 +6833,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -6947,7 +6865,7 @@
         <v>-14.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -6979,7 +6897,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -7011,7 +6929,7 @@
         <v>-17.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -7025,17 +6943,17 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -7043,7 +6961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -7075,7 +6993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -7104,7 +7022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -7118,7 +7036,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -7132,7 +7050,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -7146,7 +7064,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -7160,7 +7078,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -7174,7 +7092,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -7188,7 +7106,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -7202,17 +7120,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -7220,7 +7138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -7261,7 +7179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -7299,7 +7217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -7332,7 +7250,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -7365,7 +7283,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -7398,7 +7316,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -7431,7 +7349,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -7464,7 +7382,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -7497,7 +7415,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -7514,17 +7432,17 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -7532,7 +7450,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -7546,7 +7464,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -7587,7 +7505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -7625,7 +7543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -7658,7 +7576,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -7675,17 +7593,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -7696,7 +7614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -7707,7 +7625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -7727,7 +7645,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -7750,92 +7668,92 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 H8:H16">
-    <cfRule type="containsBlanks" dxfId="97" priority="18">
+    <cfRule type="containsBlanks" dxfId="92" priority="18">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="96" priority="15">
+    <cfRule type="containsBlanks" dxfId="91" priority="15">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="95" priority="17">
+    <cfRule type="containsBlanks" dxfId="90" priority="17">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J33">
-    <cfRule type="containsBlanks" dxfId="94" priority="16">
+    <cfRule type="containsBlanks" dxfId="89" priority="16">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:M65">
-    <cfRule type="containsBlanks" dxfId="93" priority="13">
+    <cfRule type="containsBlanks" dxfId="88" priority="13">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="containsBlanks" dxfId="92" priority="14">
+    <cfRule type="containsBlanks" dxfId="87" priority="14">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="91" priority="12">
+    <cfRule type="containsBlanks" dxfId="86" priority="12">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="90" priority="11">
+    <cfRule type="containsBlanks" dxfId="85" priority="11">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="89" priority="10">
+    <cfRule type="containsBlanks" dxfId="84" priority="10">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="88" priority="9">
+    <cfRule type="containsBlanks" dxfId="83" priority="9">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="87" priority="7">
+    <cfRule type="containsBlanks" dxfId="82" priority="7">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="86" priority="8">
+    <cfRule type="containsBlanks" dxfId="81" priority="8">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="85" priority="6">
+    <cfRule type="containsBlanks" dxfId="80" priority="6">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="84" priority="5">
+    <cfRule type="containsBlanks" dxfId="79" priority="5">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="83" priority="4">
+    <cfRule type="containsBlanks" dxfId="78" priority="4">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="82" priority="3">
+    <cfRule type="containsBlanks" dxfId="77" priority="3">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="81" priority="2">
+    <cfRule type="containsBlanks" dxfId="76" priority="2">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D16">
-    <cfRule type="containsBlanks" dxfId="80" priority="1">
+    <cfRule type="containsBlanks" dxfId="75" priority="1">
       <formula>LEN(TRIM(D8))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7846,28 +7764,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7879,7 +7797,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7891,13 +7809,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -7905,7 +7823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -7914,7 +7832,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -7923,7 +7841,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -7932,7 +7850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -7941,7 +7859,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -7950,7 +7868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -7959,7 +7877,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -7968,7 +7886,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -7977,7 +7895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -7986,18 +7904,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -8005,7 +7923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -8037,7 +7955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -8066,7 +7984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -8096,7 +8014,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -8126,7 +8044,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -8156,7 +8074,7 @@
         <v>-13.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -8186,7 +8104,7 @@
         <v>-14.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -8216,7 +8134,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -8246,7 +8164,7 @@
         <v>-17.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -8260,23 +8178,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -8308,7 +8226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -8337,7 +8255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -8351,7 +8269,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -8365,7 +8283,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -8379,7 +8297,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -8393,7 +8311,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -8407,7 +8325,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -8421,7 +8339,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -8435,17 +8353,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -8453,7 +8371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -8494,7 +8412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -8532,7 +8450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -8561,7 +8479,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -8590,7 +8508,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -8619,7 +8537,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -8648,7 +8566,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -8677,7 +8595,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -8706,7 +8624,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -8723,17 +8641,17 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -8741,7 +8659,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -8755,7 +8673,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -8796,7 +8714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -8834,7 +8752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -8863,7 +8781,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -8880,17 +8798,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -8901,7 +8819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -8912,7 +8830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -8932,7 +8850,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -8955,87 +8873,87 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 D8:D16 H8:H16">
-    <cfRule type="containsBlanks" dxfId="79" priority="17">
+    <cfRule type="containsBlanks" dxfId="74" priority="17">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="78" priority="14">
+    <cfRule type="containsBlanks" dxfId="73" priority="14">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="77" priority="16">
+    <cfRule type="containsBlanks" dxfId="72" priority="16">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J33">
-    <cfRule type="containsBlanks" dxfId="76" priority="15">
+    <cfRule type="containsBlanks" dxfId="71" priority="15">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:M65">
-    <cfRule type="containsBlanks" dxfId="75" priority="12">
+    <cfRule type="containsBlanks" dxfId="70" priority="12">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="containsBlanks" dxfId="74" priority="13">
+    <cfRule type="containsBlanks" dxfId="69" priority="13">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="73" priority="11">
+    <cfRule type="containsBlanks" dxfId="68" priority="11">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="72" priority="10">
+    <cfRule type="containsBlanks" dxfId="67" priority="10">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="71" priority="9">
+    <cfRule type="containsBlanks" dxfId="66" priority="9">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="70" priority="8">
+    <cfRule type="containsBlanks" dxfId="65" priority="8">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="69" priority="6">
+    <cfRule type="containsBlanks" dxfId="64" priority="6">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="68" priority="7">
+    <cfRule type="containsBlanks" dxfId="63" priority="7">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="67" priority="5">
+    <cfRule type="containsBlanks" dxfId="62" priority="5">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="66" priority="4">
+    <cfRule type="containsBlanks" dxfId="61" priority="4">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="65" priority="3">
+    <cfRule type="containsBlanks" dxfId="60" priority="3">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="64" priority="2">
+    <cfRule type="containsBlanks" dxfId="59" priority="2">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="63" priority="1">
+    <cfRule type="containsBlanks" dxfId="58" priority="1">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9046,28 +8964,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9081,7 +8999,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9095,13 +9013,13 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -9109,7 +9027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -9120,7 +9038,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -9131,7 +9049,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -9140,7 +9058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -9151,7 +9069,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -9162,7 +9080,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -9173,7 +9091,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -9184,7 +9102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -9195,7 +9113,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -9206,18 +9124,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9225,7 +9143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -9257,7 +9175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -9286,7 +9204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -9318,7 +9236,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -9348,7 +9266,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9378,7 +9296,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -9408,7 +9326,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -9438,7 +9356,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -9468,7 +9386,7 @@
         <v>-17.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -9482,23 +9400,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -9530,7 +9448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -9559,7 +9477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -9573,7 +9491,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -9587,7 +9505,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -9601,7 +9519,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -9615,7 +9533,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -9629,7 +9547,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -9643,7 +9561,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -9657,17 +9575,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -9675,7 +9593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -9716,7 +9634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -9754,7 +9672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -9783,7 +9701,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -9812,7 +9730,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -9841,7 +9759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -9870,7 +9788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -9899,7 +9817,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -9928,7 +9846,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -9945,17 +9863,17 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -9963,7 +9881,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -9977,7 +9895,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -10018,7 +9936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -10056,7 +9974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -10085,7 +10003,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -10102,17 +10020,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -10123,7 +10041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -10134,7 +10052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -10154,7 +10072,7 @@
         <v>4.6527777777777779E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -10177,87 +10095,87 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 D8:D16 H8:H16">
-    <cfRule type="containsBlanks" dxfId="62" priority="22">
+    <cfRule type="containsBlanks" dxfId="57" priority="22">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="61" priority="21">
+    <cfRule type="containsBlanks" dxfId="56" priority="21">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="containsBlanks" dxfId="60" priority="18">
+    <cfRule type="containsBlanks" dxfId="55" priority="18">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="59" priority="16">
+    <cfRule type="containsBlanks" dxfId="54" priority="16">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="58" priority="15">
+    <cfRule type="containsBlanks" dxfId="53" priority="15">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="57" priority="14">
+    <cfRule type="containsBlanks" dxfId="52" priority="14">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="56" priority="11">
+    <cfRule type="containsBlanks" dxfId="51" priority="11">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="55" priority="12">
+    <cfRule type="containsBlanks" dxfId="50" priority="12">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="54" priority="10">
+    <cfRule type="containsBlanks" dxfId="49" priority="10">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="53" priority="9">
+    <cfRule type="containsBlanks" dxfId="48" priority="9">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="52" priority="8">
+    <cfRule type="containsBlanks" dxfId="47" priority="8">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="51" priority="6">
+    <cfRule type="containsBlanks" dxfId="46" priority="6">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="50" priority="4">
+    <cfRule type="containsBlanks" dxfId="45" priority="4">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J33">
-    <cfRule type="containsBlanks" dxfId="49" priority="5">
+    <cfRule type="containsBlanks" dxfId="44" priority="5">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:M65">
-    <cfRule type="containsBlanks" dxfId="48" priority="3">
+    <cfRule type="containsBlanks" dxfId="43" priority="3">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="47" priority="2">
+    <cfRule type="containsBlanks" dxfId="42" priority="2">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="46" priority="1">
+    <cfRule type="containsBlanks" dxfId="41" priority="1">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10268,28 +10186,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B76" sqref="B76:M76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10301,7 +10219,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10313,13 +10231,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -10327,7 +10245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -10336,7 +10254,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -10345,7 +10263,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -10354,7 +10272,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -10363,7 +10281,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -10372,7 +10290,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -10381,7 +10299,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -10390,7 +10308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -10399,7 +10317,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -10408,18 +10326,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -10427,7 +10345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -10459,7 +10377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -10488,7 +10406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -10518,7 +10436,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -10548,7 +10466,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -10578,7 +10496,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -10608,7 +10526,7 @@
         <v>-14.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -10638,7 +10556,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -10668,7 +10586,7 @@
         <v>-17.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -10682,23 +10600,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -10730,7 +10648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -10759,7 +10677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -10773,7 +10691,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -10787,7 +10705,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -10801,7 +10719,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -10815,7 +10733,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -10829,7 +10747,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -10843,7 +10761,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -10857,17 +10775,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -10875,7 +10793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -10916,7 +10834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -10954,7 +10872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -10983,7 +10901,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -11012,7 +10930,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -11041,7 +10959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -11070,7 +10988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -11099,7 +11017,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -11128,7 +11046,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -11145,23 +11063,23 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -11171,7 +11089,7 @@
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -11212,7 +11130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -11250,7 +11168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -11267,7 +11185,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -11284,17 +11202,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -11305,7 +11223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -11316,7 +11234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -11336,7 +11254,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -11357,87 +11275,87 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 D8:D16 H8:H16">
-    <cfRule type="containsBlanks" dxfId="45" priority="17">
+    <cfRule type="containsBlanks" dxfId="40" priority="17">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="44" priority="14">
+    <cfRule type="containsBlanks" dxfId="39" priority="14">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="43" priority="16">
+    <cfRule type="containsBlanks" dxfId="38" priority="16">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J33">
-    <cfRule type="containsBlanks" dxfId="42" priority="15">
+    <cfRule type="containsBlanks" dxfId="37" priority="15">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:M65">
-    <cfRule type="containsBlanks" dxfId="41" priority="12">
+    <cfRule type="containsBlanks" dxfId="36" priority="12">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="containsBlanks" dxfId="40" priority="13">
+    <cfRule type="containsBlanks" dxfId="35" priority="13">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="39" priority="11">
+    <cfRule type="containsBlanks" dxfId="34" priority="11">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="38" priority="10">
+    <cfRule type="containsBlanks" dxfId="33" priority="10">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="37" priority="9">
+    <cfRule type="containsBlanks" dxfId="32" priority="9">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="36" priority="8">
+    <cfRule type="containsBlanks" dxfId="31" priority="8">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="35" priority="6">
+    <cfRule type="containsBlanks" dxfId="30" priority="6">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="34" priority="7">
+    <cfRule type="containsBlanks" dxfId="29" priority="7">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="33" priority="5">
+    <cfRule type="containsBlanks" dxfId="28" priority="5">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="32" priority="4">
+    <cfRule type="containsBlanks" dxfId="27" priority="4">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="31" priority="3">
+    <cfRule type="containsBlanks" dxfId="26" priority="3">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="30" priority="2">
+    <cfRule type="containsBlanks" dxfId="25" priority="2">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="29" priority="1">
+    <cfRule type="containsBlanks" dxfId="24" priority="1">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11448,28 +11366,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="B76" sqref="B76:M76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -11481,7 +11399,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11493,13 +11411,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -11507,7 +11425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -11518,7 +11436,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -11529,7 +11447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -11538,7 +11456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -11549,7 +11467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -11560,7 +11478,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -11571,7 +11489,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -11582,7 +11500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -11593,7 +11511,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -11604,18 +11522,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -11623,7 +11541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -11655,7 +11573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -11684,7 +11602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -11710,7 +11628,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -11736,7 +11654,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -11766,7 +11684,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -11796,7 +11714,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -11826,7 +11744,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -11856,7 +11774,7 @@
         <v>-17.2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -11870,23 +11788,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -11918,7 +11836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -11947,7 +11865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -11961,7 +11879,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -11975,7 +11893,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -11989,7 +11907,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -12003,7 +11921,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -12017,7 +11935,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -12031,7 +11949,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -12045,17 +11963,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -12063,7 +11981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -12104,7 +12022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -12142,7 +12060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -12171,7 +12089,7 @@
       </c>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -12200,7 +12118,7 @@
       </c>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -12229,7 +12147,7 @@
       </c>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -12258,7 +12176,7 @@
       </c>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -12287,7 +12205,7 @@
       </c>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -12316,7 +12234,7 @@
       </c>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -12333,23 +12251,23 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -12359,7 +12277,7 @@
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -12400,7 +12318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -12438,7 +12356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -12467,7 +12385,7 @@
       </c>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -12484,17 +12402,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -12505,7 +12423,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -12516,7 +12434,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -12536,7 +12454,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -12559,122 +12477,122 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="containsBlanks" dxfId="28" priority="26">
+    <cfRule type="containsBlanks" dxfId="23" priority="26">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="27" priority="23">
+    <cfRule type="containsBlanks" dxfId="22" priority="23">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="26" priority="25">
+    <cfRule type="containsBlanks" dxfId="21" priority="25">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:J33">
-    <cfRule type="containsBlanks" dxfId="25" priority="24">
+    <cfRule type="containsBlanks" dxfId="20" priority="24">
       <formula>LEN(TRIM(C28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:M65">
-    <cfRule type="containsBlanks" dxfId="24" priority="21">
+    <cfRule type="containsBlanks" dxfId="19" priority="21">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="containsBlanks" dxfId="23" priority="22">
+    <cfRule type="containsBlanks" dxfId="18" priority="22">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="22" priority="20">
+    <cfRule type="containsBlanks" dxfId="17" priority="20">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="21" priority="19">
+    <cfRule type="containsBlanks" dxfId="16" priority="19">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="20" priority="18">
+    <cfRule type="containsBlanks" dxfId="15" priority="18">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M75">
-    <cfRule type="containsBlanks" dxfId="19" priority="17">
+    <cfRule type="containsBlanks" dxfId="14" priority="17">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="18" priority="15">
+    <cfRule type="containsBlanks" dxfId="13" priority="15">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="17" priority="16">
+    <cfRule type="containsBlanks" dxfId="12" priority="16">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="16" priority="12">
+    <cfRule type="containsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="containsBlanks" dxfId="15" priority="11">
+    <cfRule type="containsBlanks" dxfId="10" priority="11">
       <formula>LEN(TRIM(B65))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="14" priority="10">
+    <cfRule type="containsBlanks" dxfId="9" priority="10">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B33">
-    <cfRule type="containsBlanks" dxfId="13" priority="9">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="containsBlanks" dxfId="12" priority="8">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:M64">
-    <cfRule type="containsBlanks" dxfId="11" priority="7">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(C64))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="containsBlanks" dxfId="10" priority="6">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(B64))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="9" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="8" priority="4">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D16">
-    <cfRule type="containsBlanks" dxfId="7" priority="3">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(D8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H16">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(H8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:M76">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B76))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/20200305_V4_UPDATED.xlsx
+++ b/20200305_V4_UPDATED.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mart\Documents\GitHub\SVV-FlightTest-B06\project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manoukvanderzwan/PycharmProjects/FlightDynamics/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140EF736-DDAD-2B40-851F-2801C3E30F5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,21 +22,11 @@
     <sheet name="Sebas" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="78">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -268,16 +259,13 @@
     <t>Tygron?</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>0C (between seats 1, 2, 9 and 10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[hh]:mm"/>
@@ -345,114 +333,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="131">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="126">
     <dxf>
       <fill>
         <patternFill>
@@ -3132,7 +3015,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3198,7 +3081,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3147,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3330,7 +3213,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3279,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3345,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3528,7 +3411,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="CABIN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3575,9 +3458,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3615,7 +3498,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3650,6 +3533,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3685,9 +3585,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3860,28 +3777,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:M65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3893,7 +3810,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3905,13 +3822,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -3919,7 +3836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -3930,7 +3847,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -3941,7 +3858,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3952,7 +3869,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3963,7 +3880,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -3974,7 +3891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -3985,7 +3902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -3996,7 +3913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -4007,7 +3924,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -4018,7 +3935,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -4026,12 +3943,12 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -4039,7 +3956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -4071,7 +3988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -4100,7 +4017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4132,7 +4049,7 @@
         <v>-10.200000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -4164,7 +4081,7 @@
         <v>-12.16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -4196,7 +4113,7 @@
         <v>-13.75</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -4228,7 +4145,7 @@
         <v>-14.866666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -4260,7 +4177,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -4292,55 +4209,37 @@
         <v>-17.45</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -4372,7 +4271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -4401,241 +4300,115 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -4643,7 +4416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -4684,7 +4457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -4722,7 +4495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -4763,7 +4536,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -4804,7 +4577,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4845,7 +4618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -4886,7 +4659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -4927,99 +4700,51 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -5027,7 +4752,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -5038,10 +4763,10 @@
         <v>34</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -5082,7 +4807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -5120,7 +4845,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -5161,7 +4886,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -5202,17 +4927,17 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -5223,7 +4948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -5234,7 +4959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -5254,7 +4979,7 @@
         <v>4.5717592592592594E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -5277,82 +5002,82 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="containsBlanks" dxfId="130" priority="32">
+    <cfRule type="containsBlanks" dxfId="125" priority="32">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="129" priority="27">
+    <cfRule type="containsBlanks" dxfId="124" priority="27">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J34">
-    <cfRule type="containsBlanks" dxfId="128" priority="26">
+    <cfRule type="containsBlanks" dxfId="123" priority="26">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="127" priority="22">
+    <cfRule type="containsBlanks" dxfId="122" priority="22">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="126" priority="21">
+    <cfRule type="containsBlanks" dxfId="121" priority="21">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="125" priority="20">
+    <cfRule type="containsBlanks" dxfId="120" priority="20">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="124" priority="14">
+    <cfRule type="containsBlanks" dxfId="119" priority="14">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="123" priority="15">
+    <cfRule type="containsBlanks" dxfId="118" priority="15">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:J50">
-    <cfRule type="containsBlanks" dxfId="122" priority="8">
+    <cfRule type="containsBlanks" dxfId="117" priority="8">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:M65">
-    <cfRule type="containsBlanks" dxfId="121" priority="7">
+    <cfRule type="containsBlanks" dxfId="116" priority="7">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="120" priority="6">
+    <cfRule type="containsBlanks" dxfId="115" priority="6">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="119" priority="5">
+    <cfRule type="containsBlanks" dxfId="114" priority="5">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="118" priority="4">
+    <cfRule type="containsBlanks" dxfId="113" priority="4">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="117" priority="3">
+    <cfRule type="containsBlanks" dxfId="112" priority="3">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H16">
-    <cfRule type="containsBlanks" dxfId="116" priority="2">
+    <cfRule type="containsBlanks" dxfId="111" priority="2">
       <formula>LEN(TRIM(H8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D16">
-    <cfRule type="containsBlanks" dxfId="115" priority="1">
+    <cfRule type="containsBlanks" dxfId="110" priority="1">
       <formula>LEN(TRIM(D8))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5363,28 +5088,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5396,7 +5121,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5410,13 +5135,13 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -5424,7 +5149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5435,7 +5160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -5446,7 +5171,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -5455,7 +5180,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -5466,7 +5191,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5477,7 +5202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -5488,7 +5213,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -5499,7 +5224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -5510,7 +5235,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -5521,18 +5246,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -5540,7 +5265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -5572,7 +5297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -5601,7 +5326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5631,7 +5356,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -5645,7 +5370,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -5675,7 +5400,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5705,7 +5430,7 @@
         <v>-14.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -5735,7 +5460,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -5765,7 +5490,7 @@
         <v>-17.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -5779,17 +5504,17 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -5797,7 +5522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -5829,7 +5554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -5858,7 +5583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5872,7 +5597,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -5886,7 +5611,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -5900,7 +5625,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -5914,7 +5639,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -5928,7 +5653,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -5942,7 +5667,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -5956,17 +5681,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -5974,7 +5699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -6015,7 +5740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -6053,7 +5778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -6084,7 +5809,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -6115,7 +5840,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -6146,7 +5871,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -6177,7 +5902,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -6208,7 +5933,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -6239,7 +5964,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
@@ -6256,17 +5981,17 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -6274,7 +5999,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -6288,7 +6013,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -6329,7 +6054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -6367,7 +6092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -6398,7 +6123,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -6415,17 +6140,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -6436,7 +6161,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -6447,7 +6172,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -6467,7 +6192,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -6490,87 +6215,87 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 D8:D16 H8:H16 B75:M75 B64:M64">
-    <cfRule type="containsBlanks" dxfId="114" priority="23">
+    <cfRule type="containsBlanks" dxfId="109" priority="23">
       <formula>LEN(TRIM(B3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="113" priority="22">
+    <cfRule type="containsBlanks" dxfId="108" priority="22">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="containsBlanks" dxfId="112" priority="19">
+    <cfRule type="containsBlanks" dxfId="107" priority="19">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="111" priority="17">
+    <cfRule type="containsBlanks" dxfId="106" priority="17">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="110" priority="16">
+    <cfRule type="containsBlanks" dxfId="105" priority="16">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="109" priority="15">
+    <cfRule type="containsBlanks" dxfId="104" priority="15">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="108" priority="12">
+    <cfRule type="containsBlanks" dxfId="103" priority="12">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="107" priority="13">
+    <cfRule type="containsBlanks" dxfId="102" priority="13">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="106" priority="11">
+    <cfRule type="containsBlanks" dxfId="101" priority="11">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="105" priority="10">
+    <cfRule type="containsBlanks" dxfId="100" priority="10">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="104" priority="9">
+    <cfRule type="containsBlanks" dxfId="99" priority="9">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="103" priority="7">
+    <cfRule type="containsBlanks" dxfId="98" priority="7">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J30 B32:J33 C31:J31">
-    <cfRule type="containsBlanks" dxfId="102" priority="6">
+    <cfRule type="containsBlanks" dxfId="97" priority="6">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="101" priority="5">
+    <cfRule type="containsBlanks" dxfId="96" priority="5">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:M65">
-    <cfRule type="containsBlanks" dxfId="100" priority="4">
+    <cfRule type="containsBlanks" dxfId="95" priority="4">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="99" priority="3">
+    <cfRule type="containsBlanks" dxfId="94" priority="3">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:M76">
-    <cfRule type="containsBlanks" dxfId="98" priority="1">
+    <cfRule type="containsBlanks" dxfId="93" priority="1">
       <formula>LEN(TRIM(B76))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6581,28 +6306,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6614,7 +6339,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6626,13 +6351,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -6640,7 +6365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -6651,7 +6376,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -6662,7 +6387,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -6673,7 +6398,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -6684,7 +6409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -6695,7 +6420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -6706,7 +6431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -6717,7 +6442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -6728,7 +6453,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -6739,18 +6464,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -6758,7 +6483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -6790,7 +6515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -6819,7 +6544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6851,7 +6576,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -6883,7 +6608,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -6915,7 +6640,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -6947,7 +6672,7 @@
         <v>-14.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -6979,7 +6704,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -7011,7 +6736,7 @@
         <v>-17.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -7025,17 +6750,17 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -7043,7 +6768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -7075,7 +6800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -7104,7 +6829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -7118,7 +6843,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -7132,7 +6857,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -7146,7 +6871,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -7160,7 +6885,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -7174,7 +6899,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -7188,7 +6913,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -7202,17 +6927,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -7220,7 +6945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -7261,7 +6986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -7299,7 +7024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -7332,7 +7057,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -7365,7 +7090,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -7398,7 +7123,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -7431,7 +7156,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -7464,7 +7189,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -7497,7 +7222,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
@@ -7514,17 +7239,17 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -7532,7 +7257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -7546,7 +7271,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -7587,7 +7312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -7625,7 +7350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -7658,7 +7383,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -7675,17 +7400,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -7696,7 +7421,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -7707,7 +7432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -7727,7 +7452,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -7750,92 +7475,92 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 H8:H16">
-    <cfRule type="containsBlanks" dxfId="97" priority="18">
+    <cfRule type="containsBlanks" dxfId="92" priority="18">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="96" priority="15">
+    <cfRule type="containsBlanks" dxfId="91" priority="15">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="95" priority="17">
+    <cfRule type="containsBlanks" dxfId="90" priority="17">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J33">
-    <cfRule type="containsBlanks" dxfId="94" priority="16">
+    <cfRule type="containsBlanks" dxfId="89" priority="16">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:M65">
-    <cfRule type="containsBlanks" dxfId="93" priority="13">
+    <cfRule type="containsBlanks" dxfId="88" priority="13">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="containsBlanks" dxfId="92" priority="14">
+    <cfRule type="containsBlanks" dxfId="87" priority="14">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="91" priority="12">
+    <cfRule type="containsBlanks" dxfId="86" priority="12">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="90" priority="11">
+    <cfRule type="containsBlanks" dxfId="85" priority="11">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="89" priority="10">
+    <cfRule type="containsBlanks" dxfId="84" priority="10">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="88" priority="9">
+    <cfRule type="containsBlanks" dxfId="83" priority="9">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="87" priority="7">
+    <cfRule type="containsBlanks" dxfId="82" priority="7">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="86" priority="8">
+    <cfRule type="containsBlanks" dxfId="81" priority="8">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="85" priority="6">
+    <cfRule type="containsBlanks" dxfId="80" priority="6">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="84" priority="5">
+    <cfRule type="containsBlanks" dxfId="79" priority="5">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="83" priority="4">
+    <cfRule type="containsBlanks" dxfId="78" priority="4">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="82" priority="3">
+    <cfRule type="containsBlanks" dxfId="77" priority="3">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="81" priority="2">
+    <cfRule type="containsBlanks" dxfId="76" priority="2">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D16">
-    <cfRule type="containsBlanks" dxfId="80" priority="1">
+    <cfRule type="containsBlanks" dxfId="75" priority="1">
       <formula>LEN(TRIM(D8))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7846,28 +7571,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7879,7 +7604,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7891,13 +7616,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -7905,7 +7630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -7914,7 +7639,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -7923,7 +7648,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -7932,7 +7657,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -7941,7 +7666,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -7950,7 +7675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -7959,7 +7684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -7968,7 +7693,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -7977,7 +7702,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -7986,18 +7711,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -8005,7 +7730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -8037,7 +7762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -8066,7 +7791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -8096,7 +7821,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -8126,7 +7851,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -8156,7 +7881,7 @@
         <v>-13.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -8186,7 +7911,7 @@
         <v>-14.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -8216,7 +7941,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -8246,7 +7971,7 @@
         <v>-17.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -8260,23 +7985,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -8308,7 +8033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -8337,7 +8062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -8351,7 +8076,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -8365,7 +8090,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -8379,7 +8104,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -8393,7 +8118,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -8407,7 +8132,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -8421,7 +8146,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -8435,17 +8160,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -8453,7 +8178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -8494,7 +8219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -8532,7 +8257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -8561,7 +8286,7 @@
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -8590,7 +8315,7 @@
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -8619,7 +8344,7 @@
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -8648,7 +8373,7 @@
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -8677,7 +8402,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -8706,7 +8431,7 @@
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
@@ -8723,17 +8448,17 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -8741,7 +8466,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -8755,7 +8480,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -8796,7 +8521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -8834,7 +8559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -8863,7 +8588,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -8880,17 +8605,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -8901,7 +8626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -8912,7 +8637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -8932,7 +8657,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -8955,87 +8680,87 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 D8:D16 H8:H16">
-    <cfRule type="containsBlanks" dxfId="79" priority="17">
+    <cfRule type="containsBlanks" dxfId="74" priority="17">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="78" priority="14">
+    <cfRule type="containsBlanks" dxfId="73" priority="14">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="77" priority="16">
+    <cfRule type="containsBlanks" dxfId="72" priority="16">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J33">
-    <cfRule type="containsBlanks" dxfId="76" priority="15">
+    <cfRule type="containsBlanks" dxfId="71" priority="15">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:M65">
-    <cfRule type="containsBlanks" dxfId="75" priority="12">
+    <cfRule type="containsBlanks" dxfId="70" priority="12">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="containsBlanks" dxfId="74" priority="13">
+    <cfRule type="containsBlanks" dxfId="69" priority="13">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="73" priority="11">
+    <cfRule type="containsBlanks" dxfId="68" priority="11">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="72" priority="10">
+    <cfRule type="containsBlanks" dxfId="67" priority="10">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="71" priority="9">
+    <cfRule type="containsBlanks" dxfId="66" priority="9">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="70" priority="8">
+    <cfRule type="containsBlanks" dxfId="65" priority="8">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="69" priority="6">
+    <cfRule type="containsBlanks" dxfId="64" priority="6">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="68" priority="7">
+    <cfRule type="containsBlanks" dxfId="63" priority="7">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="67" priority="5">
+    <cfRule type="containsBlanks" dxfId="62" priority="5">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="66" priority="4">
+    <cfRule type="containsBlanks" dxfId="61" priority="4">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="65" priority="3">
+    <cfRule type="containsBlanks" dxfId="60" priority="3">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="64" priority="2">
+    <cfRule type="containsBlanks" dxfId="59" priority="2">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="63" priority="1">
+    <cfRule type="containsBlanks" dxfId="58" priority="1">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9046,28 +8771,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9081,7 +8806,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9095,13 +8820,13 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -9109,7 +8834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -9120,7 +8845,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -9131,7 +8856,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -9140,7 +8865,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -9151,7 +8876,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -9162,7 +8887,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -9173,7 +8898,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -9184,7 +8909,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -9195,7 +8920,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -9206,18 +8931,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9225,7 +8950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -9257,7 +8982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -9286,7 +9011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -9318,7 +9043,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -9348,7 +9073,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9378,7 +9103,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -9408,7 +9133,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -9438,7 +9163,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -9468,7 +9193,7 @@
         <v>-17.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -9482,23 +9207,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -9530,7 +9255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -9559,7 +9284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -9573,7 +9298,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -9587,7 +9312,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -9601,7 +9326,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -9615,7 +9340,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -9629,7 +9354,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -9643,7 +9368,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -9657,17 +9382,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -9675,7 +9400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -9716,7 +9441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -9754,7 +9479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -9783,7 +9508,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -9812,7 +9537,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -9841,7 +9566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -9870,7 +9595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -9899,7 +9624,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -9928,7 +9653,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
@@ -9945,17 +9670,17 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -9963,7 +9688,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -9977,7 +9702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -10018,7 +9743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -10056,7 +9781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -10085,7 +9810,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -10102,17 +9827,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -10123,7 +9848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -10134,7 +9859,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -10154,7 +9879,7 @@
         <v>4.6527777777777779E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -10177,87 +9902,87 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 D8:D16 H8:H16">
-    <cfRule type="containsBlanks" dxfId="62" priority="22">
+    <cfRule type="containsBlanks" dxfId="57" priority="22">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="61" priority="21">
+    <cfRule type="containsBlanks" dxfId="56" priority="21">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="containsBlanks" dxfId="60" priority="18">
+    <cfRule type="containsBlanks" dxfId="55" priority="18">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="59" priority="16">
+    <cfRule type="containsBlanks" dxfId="54" priority="16">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="58" priority="15">
+    <cfRule type="containsBlanks" dxfId="53" priority="15">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="57" priority="14">
+    <cfRule type="containsBlanks" dxfId="52" priority="14">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="56" priority="11">
+    <cfRule type="containsBlanks" dxfId="51" priority="11">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="55" priority="12">
+    <cfRule type="containsBlanks" dxfId="50" priority="12">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="54" priority="10">
+    <cfRule type="containsBlanks" dxfId="49" priority="10">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="53" priority="9">
+    <cfRule type="containsBlanks" dxfId="48" priority="9">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="52" priority="8">
+    <cfRule type="containsBlanks" dxfId="47" priority="8">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="51" priority="6">
+    <cfRule type="containsBlanks" dxfId="46" priority="6">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="50" priority="4">
+    <cfRule type="containsBlanks" dxfId="45" priority="4">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J33">
-    <cfRule type="containsBlanks" dxfId="49" priority="5">
+    <cfRule type="containsBlanks" dxfId="44" priority="5">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:M65">
-    <cfRule type="containsBlanks" dxfId="48" priority="3">
+    <cfRule type="containsBlanks" dxfId="43" priority="3">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="47" priority="2">
+    <cfRule type="containsBlanks" dxfId="42" priority="2">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="46" priority="1">
+    <cfRule type="containsBlanks" dxfId="41" priority="1">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10268,28 +9993,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B76" sqref="B76:M76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10301,7 +10026,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10313,13 +10038,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -10327,7 +10052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -10336,7 +10061,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -10345,7 +10070,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -10354,7 +10079,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -10363,7 +10088,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -10372,7 +10097,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -10381,7 +10106,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -10390,7 +10115,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -10399,7 +10124,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -10408,18 +10133,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -10427,7 +10152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -10459,7 +10184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -10488,7 +10213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -10518,7 +10243,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -10548,7 +10273,7 @@
         <v>-12.2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -10578,7 +10303,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -10608,7 +10333,7 @@
         <v>-14.8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -10638,7 +10363,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -10668,7 +10393,7 @@
         <v>-17.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -10682,23 +10407,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -10730,7 +10455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -10759,7 +10484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -10773,7 +10498,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -10787,7 +10512,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -10801,7 +10526,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -10815,7 +10540,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -10829,7 +10554,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -10843,7 +10568,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -10857,17 +10582,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -10875,7 +10600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -10916,7 +10641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -10954,7 +10679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -10983,7 +10708,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -11012,7 +10737,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -11041,7 +10766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -11070,7 +10795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -11099,7 +10824,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -11128,7 +10853,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
@@ -11145,23 +10870,23 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -11171,7 +10896,7 @@
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -11212,7 +10937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -11250,7 +10975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -11267,7 +10992,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -11284,17 +11009,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -11305,7 +11030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -11316,7 +11041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -11336,7 +11061,7 @@
         <v>4.5833333333333337E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -11357,87 +11082,87 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4 D8:D16 H8:H16">
-    <cfRule type="containsBlanks" dxfId="45" priority="17">
+    <cfRule type="containsBlanks" dxfId="40" priority="17">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="44" priority="14">
+    <cfRule type="containsBlanks" dxfId="39" priority="14">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="43" priority="16">
+    <cfRule type="containsBlanks" dxfId="38" priority="16">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:J33">
-    <cfRule type="containsBlanks" dxfId="42" priority="15">
+    <cfRule type="containsBlanks" dxfId="37" priority="15">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:M65">
-    <cfRule type="containsBlanks" dxfId="41" priority="12">
+    <cfRule type="containsBlanks" dxfId="36" priority="12">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="containsBlanks" dxfId="40" priority="13">
+    <cfRule type="containsBlanks" dxfId="35" priority="13">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="39" priority="11">
+    <cfRule type="containsBlanks" dxfId="34" priority="11">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="38" priority="10">
+    <cfRule type="containsBlanks" dxfId="33" priority="10">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="37" priority="9">
+    <cfRule type="containsBlanks" dxfId="32" priority="9">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M76">
-    <cfRule type="containsBlanks" dxfId="36" priority="8">
+    <cfRule type="containsBlanks" dxfId="31" priority="8">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="35" priority="6">
+    <cfRule type="containsBlanks" dxfId="30" priority="6">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="34" priority="7">
+    <cfRule type="containsBlanks" dxfId="29" priority="7">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="33" priority="5">
+    <cfRule type="containsBlanks" dxfId="28" priority="5">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="32" priority="4">
+    <cfRule type="containsBlanks" dxfId="27" priority="4">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="31" priority="3">
+    <cfRule type="containsBlanks" dxfId="26" priority="3">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B65">
-    <cfRule type="containsBlanks" dxfId="30" priority="2">
+    <cfRule type="containsBlanks" dxfId="25" priority="2">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="29" priority="1">
+    <cfRule type="containsBlanks" dxfId="24" priority="1">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11448,28 +11173,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="B76" sqref="B76:M76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -11481,7 +11206,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11493,13 +11218,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -11507,7 +11232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -11518,7 +11243,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -11529,7 +11254,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -11538,7 +11263,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -11549,7 +11274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -11560,7 +11285,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -11571,7 +11296,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -11582,7 +11307,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -11593,7 +11318,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -11604,18 +11329,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -11623,7 +11348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -11655,7 +11380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -11684,7 +11409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -11710,7 +11435,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -11736,7 +11461,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -11766,7 +11491,7 @@
         <v>-13.8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -11796,7 +11521,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -11826,7 +11551,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -11856,7 +11581,7 @@
         <v>-17.2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -11870,23 +11595,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -11918,7 +11643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -11947,7 +11672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -11961,7 +11686,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -11975,7 +11700,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -11989,7 +11714,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -12003,7 +11728,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -12017,7 +11742,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -12031,7 +11756,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -12045,17 +11770,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -12063,7 +11788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -12104,7 +11829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -12142,7 +11867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -12171,7 +11896,7 @@
       </c>
       <c r="M59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -12200,7 +11925,7 @@
       </c>
       <c r="M60" s="2"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -12229,7 +11954,7 @@
       </c>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4</v>
       </c>
@@ -12258,7 +11983,7 @@
       </c>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -12287,7 +12012,7 @@
       </c>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -12316,7 +12041,7 @@
       </c>
       <c r="M64" s="2"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>7</v>
       </c>
@@ -12333,23 +12058,23 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -12359,7 +12084,7 @@
       </c>
       <c r="H71" s="2"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -12400,7 +12125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -12438,7 +12163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -12467,7 +12192,7 @@
       </c>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -12484,17 +12209,17 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -12505,7 +12230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -12516,7 +12241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -12536,7 +12261,7 @@
         <v>4.5138888888888888E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -12559,122 +12284,122 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="H3:H4">
-    <cfRule type="containsBlanks" dxfId="28" priority="26">
+    <cfRule type="containsBlanks" dxfId="23" priority="26">
       <formula>LEN(TRIM(H3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:J34">
-    <cfRule type="containsBlanks" dxfId="27" priority="23">
+    <cfRule type="containsBlanks" dxfId="22" priority="23">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsBlanks" dxfId="26" priority="25">
+    <cfRule type="containsBlanks" dxfId="21" priority="25">
       <formula>LEN(TRIM(D18))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:J33">
-    <cfRule type="containsBlanks" dxfId="25" priority="24">
+    <cfRule type="containsBlanks" dxfId="20" priority="24">
       <formula>LEN(TRIM(C28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:M65">
-    <cfRule type="containsBlanks" dxfId="24" priority="21">
+    <cfRule type="containsBlanks" dxfId="19" priority="21">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:J50">
-    <cfRule type="containsBlanks" dxfId="23" priority="22">
+    <cfRule type="containsBlanks" dxfId="18" priority="22">
       <formula>LEN(TRIM(C44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsBlanks" dxfId="22" priority="20">
+    <cfRule type="containsBlanks" dxfId="17" priority="20">
       <formula>LEN(TRIM(C70))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsBlanks" dxfId="21" priority="19">
+    <cfRule type="containsBlanks" dxfId="16" priority="19">
       <formula>LEN(TRIM(C71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsBlanks" dxfId="20" priority="18">
+    <cfRule type="containsBlanks" dxfId="15" priority="18">
       <formula>LEN(TRIM(H71))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:M75">
-    <cfRule type="containsBlanks" dxfId="19" priority="17">
+    <cfRule type="containsBlanks" dxfId="14" priority="17">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="containsBlanks" dxfId="18" priority="15">
+    <cfRule type="containsBlanks" dxfId="13" priority="15">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="17" priority="16">
+    <cfRule type="containsBlanks" dxfId="12" priority="16">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J84">
-    <cfRule type="containsBlanks" dxfId="16" priority="12">
+    <cfRule type="containsBlanks" dxfId="11" priority="12">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="containsBlanks" dxfId="15" priority="11">
+    <cfRule type="containsBlanks" dxfId="10" priority="11">
       <formula>LEN(TRIM(B65))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="containsBlanks" dxfId="14" priority="10">
+    <cfRule type="containsBlanks" dxfId="9" priority="10">
       <formula>LEN(TRIM(B44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B33">
-    <cfRule type="containsBlanks" dxfId="13" priority="9">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B64">
-    <cfRule type="containsBlanks" dxfId="12" priority="8">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
       <formula>LEN(TRIM(B59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:M64">
-    <cfRule type="containsBlanks" dxfId="11" priority="7">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(C64))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="containsBlanks" dxfId="10" priority="6">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(B64))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="containsBlanks" dxfId="9" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(D83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G83:G84">
-    <cfRule type="containsBlanks" dxfId="8" priority="4">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(G83))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D16">
-    <cfRule type="containsBlanks" dxfId="7" priority="3">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(D8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H16">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(H8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:M76">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B76))=0</formula>
     </cfRule>
   </conditionalFormatting>
